--- a/data2.xlsx
+++ b/data2.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -96,16 +96,422 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>569.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>960.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>960.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>960.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>960.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>407.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>960.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>447.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>960.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1199.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1199.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1199.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1199.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1199.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1199.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1199.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1199.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1277.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1277.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1277.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1277.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1277.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1277.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1277.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1277.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1277.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1277.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1277.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1277.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B31" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.0</v>
+      <c r="C31" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1277.0</v>
       </c>
     </row>
   </sheetData>
